--- a/Achats/Liste Matériel Débitdouille.xlsx
+++ b/Achats/Liste Matériel Débitdouille.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moinards\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1BAB90-1ED3-4E5F-A474-9A27C8493DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E024667-F900-46B5-AA17-838218403869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EA4A89E8-D0AB-4AA3-881B-BF9F100B949A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>Nom</t>
   </si>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>Commentaire</t>
+  </si>
+  <si>
+    <t>Câble micro-USB DATA</t>
+  </si>
+  <si>
+    <t>https://www.gotronic.fr/art-cordon-50-cm-rs105-33657.htm</t>
   </si>
 </sst>
 </file>
@@ -690,11 +696,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06FCD12E-B145-44D4-B5A1-BBEC55FECB45}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B10" sqref="B10"/>
+      <selection pane="topRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,173 +778,178 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <f>D5*E5</f>
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D6" s="9">
         <v>1.9</v>
       </c>
-      <c r="E5" s="9">
-        <v>1</v>
-      </c>
-      <c r="F5" s="10">
-        <f>D5*E5</f>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10">
+        <f>D6*E6</f>
         <v>1.9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1">
-        <v>24.8</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7">
-        <f t="shared" ref="F7:F25" si="0">D7*E7</f>
-        <v>24.8</v>
-      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" ref="F8:F26" si="0">D8*E8</f>
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D9" s="1">
         <v>0.75</v>
       </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D10" s="1">
         <v>2.21</v>
       </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="7">
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7">
         <f t="shared" si="0"/>
         <v>2.21</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D11" s="1">
         <v>1.98</v>
       </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="7">
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7">
         <f t="shared" si="0"/>
         <v>1.98</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D12" s="9">
         <v>1.1200000000000001</v>
       </c>
-      <c r="E11" s="9">
-        <v>1</v>
-      </c>
-      <c r="F11" s="10">
+      <c r="E12" s="9">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10">
         <f t="shared" si="0"/>
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1">
-        <v>2</v>
-      </c>
-      <c r="F13" s="7"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>53</v>
@@ -951,224 +962,240 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D16" s="1">
         <v>10.79</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E16" s="1">
         <v>4</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F16" s="7">
         <f t="shared" si="0"/>
         <v>43.16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D17" s="1">
         <v>1.59</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E17" s="1">
         <v>4</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F17" s="7">
         <f t="shared" si="0"/>
         <v>6.36</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B18" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D18" s="1">
         <v>2.5499999999999998</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E18" s="1">
         <v>4</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F18" s="7">
         <f t="shared" si="0"/>
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B19" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C19" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D19" s="9">
         <v>12.32</v>
       </c>
-      <c r="E18" s="9">
-        <v>1</v>
-      </c>
-      <c r="F18" s="10">
+      <c r="E19" s="9">
+        <v>1</v>
+      </c>
+      <c r="F19" s="10">
         <f t="shared" si="0"/>
         <v>12.32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D21" s="1">
         <v>29.9</v>
       </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="7">
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7">
         <f t="shared" si="0"/>
         <v>29.9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B22" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C22" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D22" s="9">
         <v>19.899999999999999</v>
       </c>
-      <c r="E21" s="9">
-        <v>1</v>
-      </c>
-      <c r="F21" s="10">
+      <c r="E22" s="9">
+        <v>1</v>
+      </c>
+      <c r="F22" s="10">
         <f t="shared" si="0"/>
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D24" s="1">
         <v>4.42</v>
       </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="7">
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="7">
         <f t="shared" si="0"/>
         <v>4.42</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D25" s="1">
         <v>3.42</v>
       </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="7">
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="7">
         <f t="shared" si="0"/>
         <v>3.42</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B26" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C26" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D26" s="9">
         <v>3.42</v>
       </c>
-      <c r="E25" s="9">
-        <v>1</v>
-      </c>
-      <c r="F25" s="10">
+      <c r="E26" s="9">
+        <v>1</v>
+      </c>
+      <c r="F26" s="10">
         <f t="shared" si="0"/>
         <v>3.42</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="16">
-        <f>SUM(F4:F25)</f>
-        <v>179.75999999999996</v>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="16">
+        <f>SUM(F4:F26)</f>
+        <v>181.70999999999995</v>
       </c>
     </row>
   </sheetData>
